--- a/data-raw/narain.sorghum.xlsx
+++ b/data-raw/narain.sorghum.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7672EF-81D4-4E0A-A14B-69039AD2073C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="22020" windowHeight="9672"/>
+    <workbookView xWindow="3280" yWindow="2240" windowWidth="7590" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -67,13 +68,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -94,9 +94,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -134,7 +134,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -240,7 +240,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -382,26 +382,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="6.109375" style="2"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="6.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>5.7</v>
       </c>
@@ -421,7 +418,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -441,7 +438,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -473,7 +470,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>4.7</v>
       </c>
@@ -505,7 +502,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -537,7 +534,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -569,7 +566,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5.8</v>
       </c>
@@ -601,7 +598,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5.3</v>
       </c>
@@ -633,7 +630,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>4.7</v>
       </c>
@@ -665,7 +662,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -697,7 +694,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>5.3</v>
       </c>
@@ -729,7 +726,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>6.8</v>
       </c>
@@ -761,7 +758,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>7.1</v>
       </c>
@@ -793,7 +790,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>6.7</v>
       </c>
@@ -825,7 +822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="G15" s="1">
         <v>6.8</v>
       </c>
@@ -839,8 +836,8 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="G16" s="3">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="G16" s="2">
         <v>6.4</v>
       </c>
       <c r="H16" s="1">
